--- a/命令行相关2.xlsx
+++ b/命令行相关2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>repo仓库相关</t>
   </si>
@@ -538,7 +538,58 @@
 比如私有权限：https://git.i-tetris.com/c/qcom/qcm/android/device/mega/maple/+/855102</t>
   </si>
   <si>
+    <t>共享文件</t>
+  </si>
+  <si>
+    <t>ubuntu 在文件 &gt; 其他位置 右下角访问 地址：smb://10.57.50.238/multi_pipeline_demo/f5a0426885d3468382f58e2124bd5fb9/0/1/test_HUIFANGsomeipSUIJIBAOWEN_1689846888176652290_1689846888176652290/6/device_crash
+报错：挂在windows共享失败
+解决：
+sudo apt install gvfs-backends
+然后在连接 smb://10.57.50.238/
+需要密码，选择已注册用户，用户名和密码都写 share。
+如果不小心写错了用户名或者密码，重启电脑重新连接配置。
+然后可以把文件拷贝到自己电脑
+windows电脑可直接浏览器访问：\\10.57.50.238\multi_pipeline_demo\8ae209b87ffe4d3faa990f1811a13d99\hprof\5c60bae3714b\com.mega.carsettings
+文件管理器，比如windows随便打开一个文件夹，左上角输入这个地址：\\10.58.50.10，然后输入帐号:share，密码:share，可以进入公司的共享文件目录
+使用杰哥的硬盘：
+huangyouchang@hyc-pc:~/hycccc/8295_OS_FL$ sudo mkdir /mnt/smb_share
+huangyouchang@hyc-pc:~/hycccc/8295_OS_FL$ sudo mount -t cifs -o username=hongjie,password=hongjie //10.56.1.205/Shared /mnt/smb_share
+huangyouchang@hyc-pc:~/hycccc/8295_OS_FL$ cd /mnt/smb_share/
+huangyouchang@hyc-pc:/mnt/smb_share$ xdg-open .</t>
+  </si>
+  <si>
+    <t>apt基本命令</t>
+  </si>
+  <si>
+    <t xml:space="preserve">安装软件： sudo apt install [software] ；
+卸载软件： sudo apt remove [software] ；
+更新可用软件包： sudo apt update ；
+更新已安装软件包： sudo apt upgrade 。
+使用Deepin-Wine安装企业微信（优化更好）
+wget -O- https://deepin-wine.i-m.dev/setup.sh | sh
+sudo apt update
+sudo apt install com.qq.weixin.work.deepin
+ubuntu 预览webp图片
+sudo add-apt-repository ppa:helkaluin/webp-pixbuf-loader
+sudo apt update
+sudo apt install webp-pixbuf-loader
+</t>
+  </si>
+  <si>
     <t>文件权限</t>
+  </si>
+  <si>
+    <t xml:space="preserve">如果一个文件无法被复制，提示没有权限，可以这样：
+sudo chmod 777 aaa.pcap
+如果没有权限编辑文件：
+sudo chmod a+w /etc/ssh/ssh_config
+ubuntu系统文件夹提示：不是所有者，所以没有更改权限
+假设您的用户名是 user123，您想获取 /opt/test_app 文件夹的权限
+sudo chown -R user123:user123 /opt/test_app
+如果没有权限删除文件：
+sudo rm -rf sdk2
+chmod a+x a.txt 意识是给所有用户，a.txt的执行权限。
+</t>
   </si>
   <si>
     <t>display</t>
@@ -666,6 +717,173 @@
 adb shell am start -n com.mega.audiotesttools/.MainActivity</t>
   </si>
   <si>
+    <t xml:space="preserve">查看当前板子上window 有哪些
+adb shell dumpsys window windows &gt; 1.txt
+在1.txt这个文件中，通过  Window #可以找到具体的包名
+</t>
+  </si>
+  <si>
+    <t>过滤当前window：
+adb shell dumpsys window
+过滤当前上层的actvity：
+adb shell "dumpsys activity | grep mResumedActivity"</t>
+  </si>
+  <si>
+    <t>查看某个app的version：
+adb shell pm dump com.lion.media |grep -i "version"
+查看某个apk版本：
+adb shell "dumpsys package com.mega.carsettings |grep versionName"
+查看某个app的version：
+adb shell pm dump com.lion.media |grep -i "version"
+adb shell pm dump com.holomatic.holoavm |grep -i "version"</t>
+  </si>
+  <si>
+    <t>adb shell
+dumpsys SurfaceFlinger
+白天黑夜来回点
+出来的日志里搜索：GraphicBufferAllocator
+GraphicBufferAllocator buffers:
+0xb400007858c8cfb0: 15840.00 KiB | 2560 (2816) x 1440 |    1 |        1 | 0x933 | SurfaceView - HvacPanel#4
+0xb400007858c8d0d0: 14400.00 KiB | 2560 (2560) x 1440 |    1 |        1 | 0x1a00 | FramebufferSurface
+0xb400007858c8d3a0: 14400.00 KiB | 2560 (2560) x 1440 |    1 |        1 | 0x10000900 | HvacPanel#0
+0xb400007858c8d790: 1560.00 KiB |  800 ( 832) x  480 |    1 |        1 | 0x1a00 | FramebufferSurface
+0xb400007858c8dee0:    0.25 KiB |    1 (  64) x    1 |    1 |        1 | 0x10000900 | #2
+0xb400007858c8e6c0:   11.00 KiB |   15 (  64) x   44 |    1 |        1 | 0x203 | RegionSamplingThread
+0xb400007858c8e900:    0.25 KiB |    1 (  64) x    1 |    1 |        1 | 0x300 | placeholder
+0xb400007858c8eab0: 1096.00 KiB | 1024 (1024) x  274 |    1 |        1 | 0x1a00 | FramebufferSurface
+0xb400007858c8f050: 15840.00 KiB | 2560 (2816) x 1440 |    1 |        1 | 0x933 | SurfaceView - HvacPanel#3
+0xb400007858c8f290: 14400.00 KiB | 2560 (2560) x 1440 |    1 |        1 | 0x1a00 | FramebufferSurface
+0xb400007858c8f5f0:  770.00 KiB |  435 ( 448) x  440 |    1 |        1 | 0x10000900 | #3
+0xb400007858c8fef0: 1560.00 KiB |  800 ( 832) x  480 |    1 |        1 | 0x1a00 | FramebufferSurface
+0xb400007858c900a0: 1200.00 KiB | 2560 (2560) x  120 |    1 |        1 | 0x10000900 | TopCarSystemBar#0
+0xb400007858c902e0: 1096.00 KiB | 1024 (1024) x  274 |    1 |        1 | 0x1a00 | FramebufferSurface
+0xb400007858c90370: 1200.00 KiB | 2560 (2560) x  120 |    1 |        1 | 0x10000900 | TopCarSystemBar#0
+0xb400007858c90490: 1096.00 KiB | 1024 (1024) x  274 |    1 |        1 | 0x1a00 | FramebufferSurface
+0xb400007858c906d0: 14400.00 KiB | 2560 (2560) x 1440 |    1 |        1 | 0x10000900 | com.mega.carsettings/com.mega.carsettings.CarSettingActivity#0
+0xb400007858c90910: 1560.00 KiB |  800 ( 832) x  480 |    1 |        1 | 0x1a00 | FramebufferSurface
+0xb400007858c90d00: 14400.00 KiB | 2560 (2560) x 1440 |    1 |        1 | 0x1a00 | FramebufferSurface
+0xb400007858c90d90: 15840.00 KiB | 2560 (2816) x 1440 |    1 |        1 | 0x933 | SurfaceView - HvacPanel#2
+0xb400007858c91720: 1200.00 KiB | 2560 (2560) x  120 |    1 |        1 | 0x10000900 | TopCarSystemBar#0
+0xb400007858c91a80: 15840.00 KiB | 2560 (2816) x 1440 |    1 |        1 | 0x933 | SurfaceView - com.mega.carsettings/com.mega.carsettings.CarSettingActivity#0
+0xb400007858c920b0:    0.25 KiB |    1 (  64) x    1 |    1 |        1 | 0x10000900 | #1
+0xb400007858c92530: 1280.00 KiB | 2560 (2560) x  128 |    1 |        1 | 0x10000900 | BottomCarSystemBar#0
+0xb400007858c93610: 1096.00 KiB | 1024 (1024) x  274 |    1 |        1 | 0x10000900 | com.mega.redwoodhvac/com.mega.redwoodhvac.view.behind.BehindActivity2#0
+0xb400007858c938e0: 14400.00 KiB | 2560 (2560) x 1440 |    1 |        1 | 0x10000900 | com.mega.carsettings/com.mega.carsettings.CarSettingActivity#0
+0xb400007858c93a00: 15840.00 KiB | 2560 (2816) x 1440 |    1 |        1 | 0x933 | SurfaceView - HvacPanel#1
+0xb400007858c94780: 1280.00 KiB | 2560 (2560) x  128 |    1 |        1 | 0x10000900 | BottomCarSystemBar#0
+0xb400007858c94c00:  770.00 KiB |  435 ( 448) x  440 |    1 |        1 | 0x10000900 | #3
+0xb400007858c94db0: 14400.00 KiB | 2560 (2560) x 1440 |    1 |        1 | 0x10000900 | com.mega.carsettings/com.mega.carsettings.CarSettingActivity#0
+0xb400007858c94ff0: 1096.00 KiB | 1024 (1024) x  274 |    1 |        1 | 0x10000900 | com.mega.redwoodhvac/com.mega.redwoodhvac.view.behind.BehindActivity2#0
+0xb400007858c957d0: 14400.00 KiB | 2560 (2560) x 1440 |    1 |        1 | 0x10000900 | HvacPanel#0
+0xb400007858c95ce0: 1280.00 KiB | 2560 (2560) x  128 |    1 |        1 | 0x10000900 | BottomCarSystemBar#0
+0xb400007858c95d70: 1096.00 KiB | 1024 (1024) x  274 |    1 |        1 | 0x10000900 | com.mega.redwoodhvac/com.mega.redwoodhvac.view.behind.BehindActivity2#0
+0xb400007858c960d0: 14400.00 KiB | 2560 (2560) x 1440 |    1 |        1 | 0x10000900 | HvacPanel#0
+0xb400007858c96160:    0.25 KiB |    1 (  64) x    1 |    1 |        1 | 0x10000900 | #2
+Total allocated by GraphicBufferAllocator (estimate): 229048.00 KB
+从上面日志看出：SurfaceView - HvacPanel 这个东西的id一直在增加，所以泄漏了；BehindActivity2 的id就没有增加，说明没泄漏。</t>
+  </si>
+  <si>
+    <t>adb shell dumpsys wallpaper
+adb shell dumpsys display 把dump结果输出到文件里发我看看，是不是display 5 的display属性有问题</t>
+  </si>
+  <si>
+    <t>adb shell dumpsys
+DUMP OF SERVICE wallpaper:
+mDefaultWallpaperComponent=ComponentInfo{com.mega.carmodel/com.mega.carmodel.UnityWallpaperService}  看到DefaultWallpaper 就是 设置的UnityWallpaperService</t>
+  </si>
+  <si>
+    <t>MAT分析内存工具：
+https://www.jianshu.com/p/4321d4780629
+工具见桌面文件夹MemoryAnalyzer
+加压后点击 MemoryAnalyzer
+然后进入本地文件 opt/sdk/platform-tools/ 
+先dump内存文件：adb shell am dumpheap com.demo.micolauncher /data/local/tmp/test.hprof，将test.hprof下载到本地
+执行：hprof-conv test.hprof converted-test.hprof
+使用MemoryAnalyzer 打开 converted-test.hprof</t>
+  </si>
+  <si>
+    <t>qnx 内存不够的时候会dump：在pmemtbl_control.txt文件中
+pmem table dump: total entries=2653, total size alloc'd=572522416(0x221fffb0), time=10247925.00ms
+RGS release: 0x74718000, GMU FW release: 0x30000012
+index process name host pid total size(bytes) peak size(bytes)
+0 kgsl 49204 14073856 14094336
+3 secure memory 49204 8847360 8847360
+5 ais_server 49203 790568 790568
+7 ivi_compositor 1761387 43135056 43192400
+8 screen 49195 69714040 108605560
+13 ic_whud 1847413 74272848 74895440
+14 ic_adas 1843316 174063696 174325840
+15 avm_app 2220175 299118672 305446992
+45 android.hardwar 23740477 790528 790528
+47 surfaceflinger 23744578 2362380288 6352863232
+49 droid.launcher3 23793746 129318912 208052224
+51 ndroid.systemui 23793762 43343872 51372032
+55 hery.controller 23830653 14667776 15720448
+57 icerelayservice 23834817 5111808 5111808
+59 om.iflytek.xiri 24010960 11288576 11288576
+110 ega.redwoodhvac 58577147 96804864 110931968
+122 om.mega.carplay 70017107 5111808 5111808
+133 com.mega.phev 70689088 3779031040 3828666368
+134 fly.sceneengine 72413507 5111808 5111808
+136 ega.carsettings 76157072 57925632 74145792
+137 Binder:1228_3 76218701 4841472 4841472
+可以看到phev KGSL消耗了3.8G，有问题。</t>
+  </si>
+  <si>
+    <t>adb shell am dumpheap 包名
+然后把文件改成.hprof丢到AS里去看内存泄漏情况</t>
+  </si>
+  <si>
+    <t>adb shell am dumpheap 包名
+然后把文件改成.hprof丢到AS里去看内存泄漏情况
+adb shell dumpsys meminfo com.mega.carsettings  查看内存情况   主要看下 TOTAL PSS:
+Applications Memory Usage (in Kilobytes):
+Uptime: 75224 Realtime: 75224
+** MEMINFO in pid 2450 [com.mega.carsettings] **
+                   Pss  Private  Private     Swap      Rss     Heap     Heap     Heap
+                 Total    Dirty    Clean    Dirty    Total     Size    Alloc     Free
+                ------   ------   ------   ------   ------   ------   ------   ------
+  Native Heap   122640   122608        0        0   125672   134584   122553     7315
+  Dalvik Heap     9122     9060        0        0    13272    19116     9558     9558
+ Dalvik Other     6480     4548        0        0     8908                           
+        Stack     2396     2396        0        0     2404                           
+       Ashmem        4        0        0        0       20                           
+    Other dev      126        0      124        0      456                           
+     .so mmap    60610    21280    29528        0   116116                           
+    .jar mmap     1663        0       64        0    33460                           
+    .apk mmap    25985      356    19744        0    61104                           
+    .ttf mmap      103        0        0        0      440                           
+    .dex mmap       93        4        0        0      388                           
+    .oat mmap       27        0        0        0     2224                           
+    .art mmap     7990     7784       12        0    20156                           
+   Other mmap   283045   124852   156152        0   287856                           
+      Unknown    52996    52992        0        0    53616                           
+        TOTAL   573280   345880   205624        0   573280   153700   132111    16873
+ App Summary
+                       Pss(KB)                        Rss(KB)
+                        ------                         ------
+           Java Heap:    16856                          33428
+         Native Heap:   122608                         125672
+                Code:    71004                         217720
+               Stack:     2396                           2404
+            Graphics:        0                              0
+       Private Other:   338640
+              System:    21776
+             Unknown:                                  346868
+           TOTAL PSS:   573280            TOTAL RSS:   726092      TOTAL SWAP (KB):        0
+ Objects
+               Views:      402         ViewRootImpl:        1
+         AppContexts:        9           Activities:        2
+              Assets:        7        AssetManagers:        0
+       Local Binders:      116        Proxy Binders:       79
+       Parcel memory:       18         Parcel count:       75
+    Death Recipients:       28      OpenSSL Sockets:        0
+            WebViews:        0
+ SQL
+         MEMORY_USED:        0
+  PAGECACHE_OVERFLOW:        0          MALLOC_SIZE:        0</t>
+  </si>
+  <si>
     <t>查看所有配置字信息</t>
   </si>
   <si>
@@ -857,6 +1075,17 @@
     const val LAN_ISRAEL = "iw"//希伯来语（以色列） values-iw-rIL</t>
   </si>
   <si>
+    <t xml:space="preserve">
+adb remount
+意义：remount /system/, /etc/等路径的读写权限，使当前用户有权限读写设备中/system/, /etc/等路径下的文件。使用先必须先用adb root命令。
+常见问题： remount失败。
+解决方案： 如果adb remount 命令提示remount失败，则可以先运行adb disable-verity命令，然后重启设备，最后再使用root和remount命令。
+adb disable-verity
+adb reboot
+adb root
+adb remount</t>
+  </si>
+  <si>
     <t>gradlew</t>
   </si>
   <si>
@@ -869,6 +1098,24 @@
 ./gradlew Amberex:AmberexAccount:assembleRelease -Dlint.baselines.continue=true
 huangyouchang@huangyouchang:~/workspace/redwood$ ./gradlew redwood:RedwoodCarSettings:assembleRelease -Dlint.baselines.continue=true
 ./gradlew assembleRelease -Dlint.baselines.continue=true</t>
+  </si>
+  <si>
+    <t>查看车机磁盘大小</t>
+  </si>
+  <si>
+    <t>huangyouchang@huangyouchang:~/下载$ free
+              总计         已用        空闲      共享    缓冲/缓存    可用
+内存：    65614736    11248460      501848      863916    53864428    52777844
+交换：    33554428       18432    33535996
+或者free -h</t>
+  </si>
+  <si>
+    <t>app 性能优化的文档</t>
+  </si>
+  <si>
+    <t>抽空看看公司的开发文档
+https://docs.google.com/document/d/1EJdZO0Yr_oKjfWqz6Kha1uvzpUJSEoBAiTwrlkaWX40/edit#heading=h.8xotg6t3vyhs
+https://docs.google.com/document/d/1iG3OUNwHTYuOFT1Q5RhWDzogcHDpwH2tmVPSjHQDmYQ/edit#heading=h.1z8l8k9ig7e7</t>
   </si>
   <si>
     <t>CAR.POWER</t>
@@ -948,6 +1195,32 @@
     <t>adb root后写入的数据，比如：adb shell settings put global TestVin E03TEST8155000035   其 package="root"，很容易丢失。</t>
   </si>
   <si>
+    <t>qfile刷机</t>
+  </si>
+  <si>
+    <t>使用QFIL刷SOC
+拿到串口线，按住短接口进行上电，
+SelectPort 9008 
+Load Content 到选中的soc的根目录，选中 qfi_bin/Content文件
+Select Programmer  选中下载的qfi_bin/boot_8155/boot_images/QcomPkg/SDMPkg/855/Bin/AU/RELEASE/prog_firehose_ddr.elf
+最后：Download Content
+8295不用小板，线刷升级：
+直接输入adb root &amp;&amp; adb shell msg_center_test -t uartrpc_svc/general_ctrl/req '~!b:0x7f0x080x900x080x90' &amp;&amp; adb shell msg_center_test -t uartrpc_svc/general_ctrl/req '~!b:0x7f0x080x900x080x08'
+然后用qfile刷
+使用qfile刷机，出现qfile和主机一会断开一会连上的情况：
+1.主机彻底断电，等5分钟后再上电
+2.小板子，按钮按住10s以上</t>
+  </si>
+  <si>
+    <t>ota升级</t>
+  </si>
+  <si>
+    <t>adb shell am start -n com.mega.ota.test/com.mega.ota.test.UpdateDialog
+8295 ota升级失败的解决方案，执行adb enable-verity,然后进入qnx：mount -uw /mnt/，然后在qnx下 执行reset。 然后不要执行adb root，直接ota升级。
+如果还是ota失败，先恢复出厂设置，再执行上诉步骤。
+ota升级包放在 com.mega.update，插上后自动拷贝升级</t>
+  </si>
+  <si>
     <t>gerrit</t>
   </si>
   <si>
@@ -971,10 +1244,72 @@
 </t>
   </si>
   <si>
+    <t>pcap</t>
+  </si>
+  <si>
+    <t>怎么抓仪表的pcap日志：
+adb  root
+adb pull qlog .（不确定最后这个 . 是否必须，不加. 也能导出）
+抓仪表日志，应该还有其他的方式，比如：（本人没试过）
+adb shell
+telnet cdc-qnx
+root
+tcpdump -i vlan62 -w xxx.pacp
+cp xxx.pacp /ota/android
+exit 
+exit
+adb pull /ota/xxx.pcap
+someip信号的网络：
+adb shell
+logcat | grep TMS_ 可以过滤输入信号
+TMS_是输入信号的前缀
+既可以过滤输入，也可以过滤输出
+logcat | grep TMS_Mode_Front
+logcat | grep eHMI_BlowFace
+实车上抓SOMEIP日志
+adb root 
+adb remount
+adb  shell
+cd data/
+mkdir debug
+cd debug
+tcpdump -i eth0.62 -w  xxxx.pcap     (xxxx是文件的名字最好命名为车号加日期，如PT105_1223.pcap)
+操作UI，操作完之后，CTRL+C 结束监听信号。
+退出adb shell
+adb pull /data/debug/xxxx.pcap 
+全量报文：
+adb shell
+telnet cdc-qnx
+root
+cd ota/android
+tcpdump -vv -w all.pcap
+抓完后按ctl+C停止抓报文，再通过adb取下来报文
+adb pull /ota/qnx.pcap</t>
+  </si>
+  <si>
+    <t>adb拉日志</t>
+  </si>
+  <si>
     <t>新手指引</t>
   </si>
   <si>
     <t>git使用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">回退最近一次提交：git reset --soft HEAD^
+当本地提交和远端提交出现冲突的时候：（这只是一种思路）
+将本地重置到远端上一个提交：
+git reset HEAD~1
+git status
+git pull
+git reset --hard HEAD~2
+git pull
+git stash pop
+git status
+然后看看是否需要重新提交
+git branch -vv 查看本地分支指向的远端分支是啥
+git branch -d 分支名 删除分支，前提是本地要切换到这个分支以外的分支
+</t>
   </si>
   <si>
     <t>gerrit使用</t>
@@ -1593,7 +1928,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1602,6 +1937,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2128,10 +2466,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.25" defaultRowHeight="35" customHeight="1" outlineLevelCol="1"/>
@@ -2340,228 +2678,357 @@
         <v>39</v>
       </c>
     </row>
+    <row r="50" ht="252" customHeight="1" spans="1:2">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" ht="287" customHeight="1" spans="1:2">
+      <c r="A52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="54" ht="183" customHeight="1" spans="1:2">
       <c r="A54" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="55" ht="127" customHeight="1" spans="1:2">
       <c r="A55" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" ht="409" customHeight="1" spans="1:2">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" ht="75" customHeight="1" spans="1:2">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" ht="133" customHeight="1" spans="1:2">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" ht="409" customHeight="1" spans="1:2">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" ht="89" customHeight="1" spans="1:2">
-      <c r="A61" t="s">
-        <v>51</v>
-      </c>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" ht="65" customHeight="1" spans="1:2">
       <c r="B61" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="62" ht="124" customHeight="1" spans="1:2">
-      <c r="A62" t="s">
-        <v>53</v>
-      </c>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" ht="89" customHeight="1" spans="1:2">
       <c r="B62" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="63" ht="126" customHeight="1" spans="1:2">
-      <c r="A63" t="s">
-        <v>55</v>
-      </c>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" ht="106" customHeight="1" spans="1:2">
       <c r="B63" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="64" customHeight="1" spans="1:2">
-      <c r="A64" t="s">
-        <v>57</v>
-      </c>
-      <c r="B64" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:2">
-      <c r="A65" t="s">
+    <row r="64" ht="409" customHeight="1" spans="1:2">
+      <c r="B64" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B65" t="s">
+    </row>
+    <row r="65" ht="66" customHeight="1" spans="1:2">
+      <c r="B65" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66" ht="302" customHeight="1" spans="1:2">
-      <c r="A66" t="s">
+    <row r="66" ht="89" customHeight="1" spans="1:2">
+      <c r="B66" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B66" s="1" t="s">
+    </row>
+    <row r="67" ht="177" customHeight="1" spans="1:2">
+      <c r="B67" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" ht="101" customHeight="1" spans="1:2">
-      <c r="A67" t="s">
+    <row r="68" ht="409" customHeight="1" spans="1:2">
+      <c r="B68" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B67" s="1" t="s">
+    </row>
+    <row r="69" ht="409" customHeight="1" spans="1:2">
+      <c r="A69" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="68" ht="108" customHeight="1" spans="1:2">
-      <c r="A68" t="s">
+      <c r="B69" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B68" s="1" t="s">
+    </row>
+    <row r="70" ht="89" customHeight="1" spans="1:2">
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" ht="89" customHeight="1" spans="1:2">
+      <c r="A71" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" ht="281" customHeight="1" spans="1:2">
-      <c r="B69" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:2">
-      <c r="A70" t="s">
+    <row r="72" ht="124" customHeight="1" spans="1:2">
+      <c r="A72" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" ht="382" customHeight="1" spans="1:2">
-      <c r="A71" t="s">
+    <row r="73" ht="126" customHeight="1" spans="1:2">
+      <c r="A73" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" ht="50" customHeight="1" spans="1:2">
-      <c r="B72" s="1"/>
-    </row>
-    <row r="73" ht="98" customHeight="1" spans="1:2">
-      <c r="A73" t="s">
+    <row r="74" customHeight="1" spans="1:2">
+      <c r="A74" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="74" ht="409" customHeight="1" spans="1:2">
-      <c r="A74" t="s">
+    <row r="75" customHeight="1" spans="1:2">
+      <c r="A75" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B75" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="75" ht="409" customHeight="1" spans="1:2">
-      <c r="B75" s="1" t="s">
+    <row r="76" ht="302" customHeight="1" spans="1:2">
+      <c r="A76" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="76" ht="47" customHeight="1" spans="1:2">
-      <c r="B76" s="1"/>
-    </row>
-    <row r="77" ht="409" customHeight="1" spans="1:2">
+      <c r="B76" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" ht="101" customHeight="1" spans="1:2">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="78" ht="45" customHeight="1" spans="1:2">
-      <c r="B78" s="1"/>
-    </row>
-    <row r="79" ht="409" customHeight="1" spans="1:2">
-      <c r="A79" t="s">
         <v>79</v>
       </c>
+    </row>
+    <row r="78" ht="108" customHeight="1" spans="1:2">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" ht="281" customHeight="1" spans="1:2">
       <c r="B79" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="80" ht="50" customHeight="1" spans="1:2">
-      <c r="B80" s="1"/>
-    </row>
-    <row r="81" ht="408" customHeight="1" spans="1:2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:2">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" ht="382" customHeight="1" spans="1:2">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" ht="50" customHeight="1" spans="1:2">
       <c r="B82" s="1"/>
     </row>
-    <row r="83" customHeight="1" spans="1:2">
-      <c r="B83" t="s">
-        <v>83</v>
+    <row r="83" ht="98" customHeight="1" spans="1:2">
+      <c r="A83" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" ht="409" customHeight="1" spans="1:2">
+      <c r="A84" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="85" ht="409" customHeight="1" spans="1:2">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
       <c r="B85" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="90" customHeight="1" spans="1:2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="86" ht="269" customHeight="1" spans="1:2">
+      <c r="B86" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" ht="409" customHeight="1" spans="1:2">
+      <c r="A87" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" ht="133" customHeight="1" spans="1:2">
+      <c r="A88" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" ht="130" customHeight="1" spans="1:2">
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" ht="107" customHeight="1" spans="1:2">
       <c r="A90" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="91" customHeight="1" spans="1:2">
-      <c r="A91" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="92" customHeight="1" spans="1:2">
-      <c r="A92" t="s">
-        <v>88</v>
+        <v>97</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" ht="409" customHeight="1" spans="1:2">
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" ht="409" customHeight="1" spans="1:2">
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" ht="45" customHeight="1" spans="1:2">
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" ht="409" customHeight="1" spans="1:2">
+      <c r="A94" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" ht="50" customHeight="1" spans="1:2">
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" ht="408" customHeight="1" spans="1:2">
+      <c r="A96" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" ht="50" customHeight="1" spans="1:2">
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" customHeight="1" spans="1:2">
+      <c r="B98" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" ht="279" customHeight="1" spans="1:2">
+      <c r="A100" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="101" ht="246" customHeight="1" spans="1:2">
+      <c r="A101" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="102" ht="409" customHeight="1" spans="1:2">
+      <c r="A102" t="s">
+        <v>108</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="104" ht="258" customHeight="1" spans="1:2">
+      <c r="A104" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="1:2">
+      <c r="A106" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="1:2">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="113" ht="348" customHeight="1" spans="1:2">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="1:2">
+      <c r="A114" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B20" r:id="rId1" display="https://docs.google.com/document/d/164pSWk0OsEeUxVB1EUwcCV5leJksNpWMzUfj_J_MA5Q/edit?tab=t.0#heading=h.1z8l8k9ig7e7"/>
-    <hyperlink ref="B70" r:id="rId2" display="https://jenkins.i-tetris.com/view/Exeed-Rocky/job/rocky_os_release_20240813/16/execution/node/9/ws/android/android/vendor/mega/prebuilts/release_apks/redwood/"/>
+    <hyperlink ref="B80" r:id="rId2" display="https://jenkins.i-tetris.com/view/Exeed-Rocky/job/rocky_os_release_20240813/16/execution/node/9/ws/android/android/vendor/mega/prebuilts/release_apks/redwood/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
